--- a/biology/Botanique/Tabernaemontana_cerifera/Tabernaemontana_cerifera.xlsx
+++ b/biology/Botanique/Tabernaemontana_cerifera/Tabernaemontana_cerifera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tabernaemontana cerifera est une espèce de plantes à fleurs du genre Tabernaemontana et de la famille des Apocynaceae. Elle est endémique en Nouvelle-Calédonie[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tabernaemontana cerifera est une espèce de plantes à fleurs du genre Tabernaemontana et de la famille des Apocynaceae. Elle est endémique en Nouvelle-Calédonie,.
 </t>
         </is>
       </c>
@@ -513,22 +525,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aspect général
-L'espèce se présente généralement comme un arbuste ou un petit arbre mesurant entre 4 et 10 mètres de haut[1]. En maquis minier, c'est habituellement un arbuste, et en milieu forestier, un arbre moyen[3].
-Ses rameaux sont peu nombreux[1].
-L'espèce présente un grand polymorphisme au niveau de ses fleurs, aussi bien qu'au niveau de ses feuilles et ses fruits[3].
-Feuilles
-Les feuilles sont opposées, lancéolées ou elliptiques, coriaces, épaisses, arrondies au sommet, en coin à la base. Leur marge est souvent révolutée, c'est-à-dire qu'elle se présente comme repliée vers le dessous. Les nervures apparaissent nettement sur les deux faces[1].
-Les feuilles sont d'aspect vernissé[3].
-Fleurs
-Les fleurs sont blanches, odoriférantes et se présentent sur des inflorescences terminales robustes et bien fournies[1]. Leurs 5 pétales sont en forme d'hélice dextrogyre[3]. La floraison a lieu de juin à août[1].
-Fruits
-Les fruits, d'apparence cornue, sont groupés par paire, comme chez toutes les Apocynacées[3]. Les graines, nombreuses, sont profondément sillonnées. La fructification a lieu deux mois après la floraison[1].
-La pulpe est rouge et appréciée par les oiseaux[3].
-Écorce
-La couche externe de son écorce est blanchâtre, subérisée (à l'aspect similaire à du liège), très épaisse surtout sur les individus âgés. Elle s'écaille facilement[3].
-Sa couche interne est mince et brune[3].
-L'écorce produit un latex très abondant[1],[3].
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se présente généralement comme un arbuste ou un petit arbre mesurant entre 4 et 10 mètres de haut. En maquis minier, c'est habituellement un arbuste, et en milieu forestier, un arbre moyen.
+Ses rameaux sont peu nombreux.
+L'espèce présente un grand polymorphisme au niveau de ses fleurs, aussi bien qu'au niveau de ses feuilles et ses fruits.
 </t>
         </is>
       </c>
@@ -554,12 +559,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette espèce est largement répandue sur la Grande Terre et à l'Ile des Pins[1], à basse et moyenne altitude[3]. C'est une plante que l'on trouve plutôt dans les maquis paraforestiers, les fourrés et la forêt humide ou mésophile[3].
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles sont opposées, lancéolées ou elliptiques, coriaces, épaisses, arrondies au sommet, en coin à la base. Leur marge est souvent révolutée, c'est-à-dire qu'elle se présente comme repliée vers le dessous. Les nervures apparaissent nettement sur les deux faces.
+Les feuilles sont d'aspect vernissé.
 </t>
         </is>
       </c>
@@ -585,12 +597,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Étymologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le qualificatif cerifera (étymologiquement, "qui produit de la cire") provient du fait que les bourgeons apicaux sont recouverts d'une cire blanchâtre[1].
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont blanches, odoriférantes et se présentent sur des inflorescences terminales robustes et bien fournies. Leurs 5 pétales sont en forme d'hélice dextrogyre. La floraison a lieu de juin à août.
 </t>
         </is>
       </c>
@@ -616,15 +634,160 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits, d'apparence cornue, sont groupés par paire, comme chez toutes les Apocynacées. Les graines, nombreuses, sont profondément sillonnées. La fructification a lieu deux mois après la floraison.
+La pulpe est rouge et appréciée par les oiseaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tabernaemontana_cerifera</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tabernaemontana_cerifera</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Écorce</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La couche externe de son écorce est blanchâtre, subérisée (à l'aspect similaire à du liège), très épaisse surtout sur les individus âgés. Elle s'écaille facilement.
+Sa couche interne est mince et brune.
+L'écorce produit un latex très abondant,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tabernaemontana_cerifera</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tabernaemontana_cerifera</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est largement répandue sur la Grande Terre et à l'Ile des Pins, à basse et moyenne altitude. C'est une plante que l'on trouve plutôt dans les maquis paraforestiers, les fourrés et la forêt humide ou mésophile.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tabernaemontana_cerifera</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tabernaemontana_cerifera</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le qualificatif cerifera (étymologiquement, "qui produit de la cire") provient du fait que les bourgeons apicaux sont recouverts d'une cire blanchâtre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tabernaemontana_cerifera</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tabernaemontana_cerifera</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est aussi appelée arbre à cire ou arbre à lait en français.
 En cèmuhî, cette plante est appelée tabè pwèti.
 En némi, elle est appelée thiguic.
-En paicî, elle est appelée téa[3].
+En paicî, elle est appelée téa.
 </t>
         </is>
       </c>
